--- a/Hakuna/src/main/resources/data/SampleTestDataSheet.xlsx
+++ b/Hakuna/src/main/resources/data/SampleTestDataSheet.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium\Hakuna\src\main\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitClone\March2024_Intellipaact_WeekendBatch\Hakuna\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="productname" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -26,12 +26,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>abc</t>
+    <t>Mouse</t>
   </si>
   <si>
-    <t>learnmore</t>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>WaterBottel</t>
   </si>
 </sst>
 </file>
@@ -349,20 +352,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
